--- a/로스트아크/Skill_Tripod_Table(수정필요).xlsx
+++ b/로스트아크/Skill_Tripod_Table(수정필요).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sky20\Desktop\진선\GameDesign\로스트아크\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06B8F75D-0BFF-49F2-998C-963E45D61D8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7D6E656-7A31-4709-820E-CD330BF1AF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8E3DD992-F5CA-43CA-A90A-D3D2390C4793}"/>
   </bookViews>
@@ -545,7 +545,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="33">
   <si>
     <t>설명</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -647,10 +647,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>트라이포드의 아이콘</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PK</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -679,7 +675,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>변형 스킬을 분리하고 트라이포드를 각각 적용한다고 했을 때 -&gt; 스킬 모션/이펙트에 변형을 주는 트라이포드는 어떻게 적용을 할 것인가?</t>
+    <t>아이콘 리소스 (Resource_Table.xlsx의 id)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1152,7 +1148,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1246,15 +1242,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1270,25 +1257,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1305,6 +1274,15 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1625,10 +1603,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF385D5D-99E2-46DF-BA33-B40AE917BBB4}">
-  <dimension ref="B1:H17"/>
+  <dimension ref="B1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -1637,17 +1615,17 @@
     <col min="2" max="2" width="4.8984375" style="10" customWidth="1"/>
     <col min="3" max="3" width="4.3984375" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.09765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="75.3984375" style="34" customWidth="1"/>
+    <col min="6" max="6" width="75.3984375" style="31" customWidth="1"/>
     <col min="7" max="9" width="8.69921875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:8" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="44"/>
     </row>
     <row r="3" spans="2:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C3" s="28" t="s">
@@ -1681,146 +1659,143 @@
       <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B5" s="43" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="35">
+      <c r="B5" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="32">
         <v>1</v>
       </c>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="F5" s="38" t="s">
+      <c r="F5" s="35" t="s">
         <v>22</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B6" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C6" s="47">
+      <c r="B6" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="38">
         <v>2</v>
       </c>
-      <c r="D6" s="48" t="s">
+      <c r="D6" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="41" t="s">
         <v>23</v>
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B7" s="45"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="40" t="s">
+      <c r="C7" s="11"/>
+      <c r="D7" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="14" t="s">
         <v>28</v>
-      </c>
-      <c r="E7" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>29</v>
       </c>
       <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="40" t="s">
+      <c r="C8" s="11"/>
+      <c r="D8" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="14" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>31</v>
       </c>
       <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B9" s="45"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="40" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="E9" s="41" t="s">
+      <c r="E9" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="42" t="s">
+      <c r="F9" s="14" t="s">
         <v>14</v>
       </c>
       <c r="H9" s="5"/>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B10" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10" s="47">
+      <c r="B10" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="38">
         <v>4</v>
       </c>
-      <c r="D10" s="48" t="s">
+      <c r="D10" s="39" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="49" t="s">
+      <c r="E10" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="50" t="s">
+      <c r="F10" s="41" t="s">
         <v>18</v>
       </c>
       <c r="H10" s="5"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C11" s="39">
+      <c r="C11" s="11">
         <v>5</v>
       </c>
-      <c r="D11" s="40" t="s">
+      <c r="D11" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="E11" s="41" t="s">
+      <c r="E11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="42" t="s">
+      <c r="F11" s="14" t="s">
         <v>19</v>
       </c>
       <c r="H11" s="5"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="C12" s="39">
+      <c r="C12" s="11">
         <v>6</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="41" t="s">
+      <c r="D12" s="12"/>
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="42" t="s">
-        <v>32</v>
+      <c r="F12" s="14" t="s">
+        <v>31</v>
       </c>
       <c r="H12" s="5"/>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.4">
-      <c r="B13" s="46" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="47">
+      <c r="B13" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="38">
         <v>7</v>
       </c>
-      <c r="D13" s="48" t="s">
+      <c r="D13" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="49" t="s">
+      <c r="E13" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="50" t="s">
-        <v>25</v>
+      <c r="F13" s="41" t="s">
+        <v>32</v>
       </c>
       <c r="H13" s="5"/>
     </row>
@@ -1838,11 +1813,6 @@
       <c r="D15" s="16"/>
       <c r="E15" s="23"/>
       <c r="F15" s="17"/>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.4">
-      <c r="F17" s="34" t="s">
-        <v>33</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
